--- a/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmp5431.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmp5431.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="80">
   <si>
     <t>土地坐落</t>
   </si>
@@ -167,10 +167,22 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>★ Equinox Minerals Limited</t>
   </si>
   <si>
     <t>★中興商銀</t>
+  </si>
+  <si>
+    <t>2011-11-25</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1060,13 +1072,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1085,13 +1097,22 @@
       <c r="G1" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -1108,13 +1129,22 @@
       <c r="G2" s="2">
         <v>624215</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -1130,6 +1160,15 @@
       </c>
       <c r="G3" s="2">
         <v>1170</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2">
+        <v>913</v>
       </c>
     </row>
   </sheetData>
@@ -1147,13 +1186,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1161,10 +1200,10 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -1175,10 +1214,10 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -1199,22 +1238,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1222,22 +1261,22 @@
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1245,22 +1284,22 @@
         <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2">
         <v>280800</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1268,22 +1307,22 @@
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2">
         <v>500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmp5431.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmp5431.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
   <si>
     <t>土地坐落</t>
   </si>
@@ -167,6 +167,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -176,10 +179,13 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>★ Equinox Minerals Limited</t>
+    <t>★EquinoxMineralsLimited</t>
   </si>
   <si>
     <t>★中興商銀</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-11-25</t>
@@ -1072,13 +1078,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1106,13 +1112,16 @@
       <c r="J1" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -1130,21 +1139,24 @@
         <v>624215</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>913</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -1162,12 +1174,15 @@
         <v>1170</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>913</v>
       </c>
     </row>
@@ -1186,13 +1201,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1200,10 +1215,10 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -1214,10 +1229,10 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -1238,22 +1253,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1261,22 +1276,22 @@
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1284,22 +1299,22 @@
         <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2">
         <v>280800</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1307,22 +1322,22 @@
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2">
         <v>500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmp5431.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmp5431.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="87">
   <si>
     <t>土地坐落</t>
   </si>
@@ -170,6 +170,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -179,16 +182,28 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>★EquinoxMineralsLimited</t>
-  </si>
-  <si>
-    <t>★中興商銀</t>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>EquinoxMineralsLimited</t>
+  </si>
+  <si>
+    <t>中興商銀</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-11-25</t>
+  </si>
+  <si>
+    <t>tmp5431</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1078,13 +1093,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1115,13 +1130,22 @@
       <c r="K1" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -1139,24 +1163,33 @@
         <v>624215</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>913</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -1174,16 +1207,25 @@
         <v>1170</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>913</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="2">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1201,13 +1243,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1215,10 +1257,10 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -1229,10 +1271,10 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -1253,22 +1295,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1276,22 +1318,22 @@
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1299,22 +1341,22 @@
         <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2">
         <v>280800</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1322,22 +1364,22 @@
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2">
         <v>500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmp5431.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmp5431.xlsx
@@ -18,30 +18,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="87">
-  <si>
-    <t>土地坐落</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>★高雄市美濃區福安段 0241-0000 地號</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="85">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>高雄市美濃區福安段02410000地號</t>
   </si>
   <si>
     <t>12分之1</t>
@@ -50,12 +71,27 @@
     <t>李永得</t>
   </si>
   <si>
-    <t>95年04月 10日</t>
+    <t>95年04月10日</t>
   </si>
   <si>
     <t>貝賈</t>
   </si>
   <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-25</t>
+  </si>
+  <si>
+    <t>邱議瑩</t>
+  </si>
+  <si>
+    <t>tmp5431</t>
+  </si>
+  <si>
     <t>存放機構(應敘明分支機構）</t>
   </si>
   <si>
@@ -74,52 +110,52 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>★臺灣銀行城中分行</t>
-  </si>
-  <si>
-    <t>★臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>★臺灣新光商業銀行屏東 分行</t>
-  </si>
-  <si>
-    <t>★彰化商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>★合作金庫商業銀行營業 部</t>
-  </si>
-  <si>
-    <t>★元大商業銀行營業部</t>
-  </si>
-  <si>
-    <t>★京城商業銀行營業部</t>
-  </si>
-  <si>
-    <t>★ National Australia Bank Sydney</t>
-  </si>
-  <si>
-    <t>★臺灣銀行松山分行</t>
-  </si>
-  <si>
-    <t>★國泰世華商業銀行南京 東路分行</t>
-  </si>
-  <si>
-    <t>★高雄銀行市府分行</t>
-  </si>
-  <si>
-    <t>★第一商業銀行</t>
-  </si>
-  <si>
-    <t>★臺灣土地銀行</t>
-  </si>
-  <si>
-    <t>★交通銀行</t>
-  </si>
-  <si>
-    <t>★中國信託商業銀行</t>
-  </si>
-  <si>
-    <t>★華僑銀行</t>
+    <t>臺灣銀行城中分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>臺灣新光商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行營業部</t>
+  </si>
+  <si>
+    <t>元大商業銀行營業部</t>
+  </si>
+  <si>
+    <t>京城商業銀行營業部</t>
+  </si>
+  <si>
+    <t>NationalAustraliaBankSydney</t>
+  </si>
+  <si>
+    <t>臺灣銀行松山分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行南京東路分行</t>
+  </si>
+  <si>
+    <t>高雄銀行市府分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行</t>
+  </si>
+  <si>
+    <t>交通銀行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行</t>
+  </si>
+  <si>
+    <t>華僑銀行</t>
   </si>
   <si>
     <t>綜合存款</t>
@@ -140,19 +176,10 @@
     <t>澳幣</t>
   </si>
   <si>
-    <t>邱議瑩</t>
-  </si>
-  <si>
     <t>李永得f</t>
   </si>
   <si>
-    <t>5，5.30</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>55.30</t>
   </si>
   <si>
     <t>quantity</t>
@@ -167,27 +194,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>EquinoxMineralsLimited</t>
   </si>
   <si>
@@ -197,15 +203,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-25</t>
-  </si>
-  <si>
-    <t>tmp5431</t>
-  </si>
-  <si>
     <t>保險公司</t>
   </si>
   <si>
@@ -215,10 +212,10 @@
     <t>要保人</t>
   </si>
   <si>
-    <t>★台灣人壽</t>
-  </si>
-  <si>
-    <t>台灣人壽歲歲長泰還本终身 險</t>
+    <t>台灣人壽</t>
+  </si>
+  <si>
+    <t>台灣人壽歲歲長泰還本终身險</t>
   </si>
   <si>
     <t>台灣人壽新祥和定期壽險</t>
@@ -242,40 +239,37 @@
     <t>取得（發生）原因</t>
   </si>
   <si>
-    <t>★李永得</t>
-  </si>
-  <si>
     <t>玉山社事業股份有限公司</t>
   </si>
   <si>
     <t>淡海股份有限公司</t>
   </si>
   <si>
-    <t>先驅媒體社會企業股份有限 公司</t>
-  </si>
-  <si>
-    <t>臺北市大安區仁愛路四段 145號3樓之2</t>
+    <t>先驅媒體社會企業股份有限公司</t>
+  </si>
+  <si>
+    <t>臺北市大安區仁愛路四段145號3樓之2</t>
   </si>
   <si>
     <t>新北市淡水區真理街17號</t>
   </si>
   <si>
-    <t>臺北市中正區仁愛路二段98 號7樓</t>
-  </si>
-  <si>
-    <t>84年07月 08日</t>
-  </si>
-  <si>
-    <t>97年02月 27日</t>
-  </si>
-  <si>
-    <t>98年07月 24日</t>
+    <t>臺北市中正區仁愛路二段98號7樓</t>
+  </si>
+  <si>
+    <t>84年07月08日</t>
+  </si>
+  <si>
+    <t>97年02月27日</t>
+  </si>
+  <si>
+    <t>98年07月24日</t>
   </si>
   <si>
     <t>發起設立</t>
   </si>
   <si>
-    <t>91.07.25發 起</t>
+    <t>91.07.25發起</t>
   </si>
   <si>
     <t>發起</t>
@@ -637,13 +631,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,31 +659,73 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1140.65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2">
         <v>133075.83</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>913</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -707,22 +743,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -730,16 +766,16 @@
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2">
         <v>2000</v>
@@ -753,16 +789,16 @@
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -774,16 +810,16 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -795,16 +831,16 @@
         <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -816,16 +852,16 @@
         <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -837,16 +873,16 @@
         <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -858,16 +894,16 @@
         <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -879,16 +915,16 @@
         <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2">
         <v>7200</v>
@@ -902,16 +938,16 @@
         <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -923,16 +959,16 @@
         <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -944,16 +980,16 @@
         <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -965,16 +1001,16 @@
         <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -986,16 +1022,16 @@
         <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1007,16 +1043,16 @@
         <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1028,16 +1064,16 @@
         <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1049,20 +1085,20 @@
         <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1070,16 +1106,16 @@
         <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -1101,43 +1137,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1145,10 +1181,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2">
         <v>3497</v>
@@ -1157,28 +1193,28 @@
         <v>5.95</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2">
         <v>624215</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="L2" s="2">
         <v>913</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N2" s="2">
         <v>43</v>
@@ -1189,10 +1225,10 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2">
         <v>117</v>
@@ -1201,28 +1237,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2">
         <v>1170</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2">
         <v>913</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N3" s="2">
         <v>44</v>
@@ -1243,13 +1279,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1257,13 +1293,13 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1271,13 +1307,13 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1295,22 +1331,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1318,22 +1354,22 @@
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1341,22 +1377,22 @@
         <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2">
         <v>280800</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1364,22 +1400,22 @@
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2">
         <v>500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmp5431.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmp5431.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -62,22 +62,103 @@
     <t>index</t>
   </si>
   <si>
-    <t>高雄市美濃區福安段02410000地號</t>
-  </si>
-  <si>
-    <t>12分之1</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>臺灣銀行城中分行</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>邱議瑩</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>臺灣新光商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行營業部</t>
+  </si>
+  <si>
+    <t>元大商業銀行營業部</t>
+  </si>
+  <si>
+    <t>京城商業銀行營業部</t>
+  </si>
+  <si>
+    <t>NationalAustraliaBankSydney</t>
+  </si>
+  <si>
+    <t>臺灣銀行松山分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行南京東路分行</t>
+  </si>
+  <si>
+    <t>高雄銀行市府分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行</t>
+  </si>
+  <si>
+    <t>交通銀行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行</t>
+  </si>
+  <si>
+    <t>華僑銀行</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>公教優惠儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>澳幣</t>
   </si>
   <si>
     <t>李永得</t>
   </si>
   <si>
-    <t>95年04月10日</t>
-  </si>
-  <si>
-    <t>貝賈</t>
-  </si>
-  <si>
-    <t>land</t>
+    <t>李永得f</t>
+  </si>
+  <si>
+    <t>55.30</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>中興商銀</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>normal</t>
@@ -86,132 +167,9 @@
     <t>2011-11-25</t>
   </si>
   <si>
-    <t>邱議瑩</t>
-  </si>
-  <si>
     <t>tmp5431</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>臺灣銀行城中分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>臺灣新光商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行營業部</t>
-  </si>
-  <si>
-    <t>元大商業銀行營業部</t>
-  </si>
-  <si>
-    <t>京城商業銀行營業部</t>
-  </si>
-  <si>
-    <t>NationalAustraliaBankSydney</t>
-  </si>
-  <si>
-    <t>臺灣銀行松山分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行南京東路分行</t>
-  </si>
-  <si>
-    <t>高雄銀行市府分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行</t>
-  </si>
-  <si>
-    <t>交通銀行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行</t>
-  </si>
-  <si>
-    <t>華僑銀行</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>公教優惠儲蓄存款</t>
-  </si>
-  <si>
-    <t>美金</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>澳幣</t>
-  </si>
-  <si>
-    <t>李永得f</t>
-  </si>
-  <si>
-    <t>55.30</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>EquinoxMineralsLimited</t>
-  </si>
-  <si>
-    <t>中興商銀</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>台灣人壽</t>
   </si>
   <si>
@@ -221,52 +179,34 @@
     <t>台灣人壽新祥和定期壽險</t>
   </si>
   <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>玉山社事業股份有限公司</t>
   </si>
   <si>
+    <t>臺北市大安區仁愛路四段145號3樓之2</t>
+  </si>
+  <si>
+    <t>84年07月08日</t>
+  </si>
+  <si>
+    <t>發起設立</t>
+  </si>
+  <si>
     <t>淡海股份有限公司</t>
   </si>
   <si>
     <t>先驅媒體社會企業股份有限公司</t>
   </si>
   <si>
-    <t>臺北市大安區仁愛路四段145號3樓之2</t>
-  </si>
-  <si>
     <t>新北市淡水區真理街17號</t>
   </si>
   <si>
     <t>臺北市中正區仁愛路二段98號7樓</t>
   </si>
   <si>
-    <t>84年07月08日</t>
-  </si>
-  <si>
     <t>97年02月27日</t>
   </si>
   <si>
     <t>98年07月24日</t>
-  </si>
-  <si>
-    <t>發起設立</t>
   </si>
   <si>
     <t>91.07.25發起</t>
@@ -631,13 +571,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="B1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="2:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,52 +620,11 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1140.65</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2">
-        <v>133075.83</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="2">
-        <v>913</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="2">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -735,7 +634,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -743,382 +642,359 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G1" s="1">
+        <v>59440</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2000</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>59440</v>
+        <v>5905403</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>5905403</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>1800000</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>2835</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>2057</v>
+        <v>102866</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>102866</v>
+        <v>53059</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="F8" s="2">
+        <v>7200</v>
+      </c>
       <c r="G8" s="2">
-        <v>53059</v>
+        <v>215712</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2">
-        <v>7200</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>215712</v>
+        <v>20964</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>20964</v>
+        <v>99108</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>99108</v>
+        <v>5111077</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>5111077</v>
+        <v>303501</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>303501</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>1632</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>426</v>
+        <v>19411</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2">
-        <v>19411</v>
+      <c r="G16" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
-        <v>36</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="G17" s="2">
         <v>2705</v>
       </c>
     </row>
@@ -1129,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1143,16 +1019,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1178,89 +1054,45 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2">
-        <v>3497</v>
+        <v>117</v>
       </c>
       <c r="E2" s="2">
-        <v>5.95</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2">
-        <v>624215</v>
+        <v>1170</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L2" s="2">
         <v>913</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="N2" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>44</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2">
-        <v>117</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1170</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="2">
-        <v>913</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="2">
         <v>44</v>
       </c>
     </row>
@@ -1271,7 +1103,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1279,41 +1111,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>50</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1323,7 +1141,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1331,91 +1149,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2">
-        <v>1000000</v>
+        <v>280800</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2">
-        <v>280800</v>
+        <v>500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>57</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="2">
-        <v>500000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmp5431.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmp5431.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="71">
   <si>
     <t>name</t>
   </si>
@@ -68,6 +68,36 @@
     <t>total</t>
   </si>
   <si>
+    <t>高雄市美濃區福安段02410000地號</t>
+  </si>
+  <si>
+    <t>12分之1</t>
+  </si>
+  <si>
+    <t>李永得</t>
+  </si>
+  <si>
+    <t>95年04月10日</t>
+  </si>
+  <si>
+    <t>貝賈</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-25</t>
+  </si>
+  <si>
+    <t>邱議瑩</t>
+  </si>
+  <si>
+    <t>tmp5431</t>
+  </si>
+  <si>
     <t>臺灣銀行城中分行</t>
   </si>
   <si>
@@ -77,9 +107,6 @@
     <t>美金</t>
   </si>
   <si>
-    <t>邱議瑩</t>
-  </si>
-  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
@@ -137,9 +164,6 @@
     <t>澳幣</t>
   </si>
   <si>
-    <t>李永得</t>
-  </si>
-  <si>
     <t>李永得f</t>
   </si>
   <si>
@@ -155,19 +179,13 @@
     <t>currency</t>
   </si>
   <si>
+    <t>EquinoxMineralsLimited</t>
+  </si>
+  <si>
     <t>中興商銀</t>
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-25</t>
-  </si>
-  <si>
-    <t>tmp5431</t>
   </si>
   <si>
     <t>台灣人壽</t>
@@ -571,13 +589,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,6 +643,59 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1140.65</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2">
+        <v>133075.83</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>913</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>95.0541666666667</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +705,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -642,16 +713,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1">
         <v>2000</v>
@@ -662,339 +733,362 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2000</v>
+      </c>
       <c r="G2" s="2">
-        <v>5905403</v>
+        <v>59440</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>1800000</v>
+        <v>5905403</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>2835</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>2057</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>102866</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>53059</v>
+        <v>102866</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="2">
-        <v>7200</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>215712</v>
+        <v>53059</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="F9" s="2">
+        <v>7200</v>
+      </c>
       <c r="G9" s="2">
-        <v>20964</v>
+        <v>215712</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>99108</v>
+        <v>20964</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>5111077</v>
+        <v>99108</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>303501</v>
+        <v>5111077</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>1632</v>
+        <v>303501</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>426</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>19411</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
-        <v>41</v>
+      <c r="G16" s="2">
+        <v>19411</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>36</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
         <v>2705</v>
       </c>
     </row>
@@ -1005,7 +1099,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1019,13 +1113,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1054,45 +1148,89 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
-        <v>117</v>
+        <v>3497</v>
       </c>
       <c r="E2" s="2">
-        <v>10</v>
+        <v>5.95</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2">
-        <v>1170</v>
+        <v>624215</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2">
         <v>913</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="N2" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2">
+        <v>117</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1170</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2">
+        <v>913</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2">
         <v>44</v>
       </c>
     </row>
@@ -1103,7 +1241,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1111,27 +1249,41 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>50</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>39</v>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1141,7 +1293,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1149,68 +1301,91 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1">
         <v>1000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2">
-        <v>280800</v>
+        <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>56</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="2">
+        <v>280800</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>57</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="2">
         <v>500000</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>64</v>
+      <c r="F4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmp5431.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmp5431.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="73">
   <si>
     <t>name</t>
   </si>
@@ -98,66 +98,75 @@
     <t>tmp5431</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行城中分行</t>
   </si>
   <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>臺灣新光商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行營業部</t>
+  </si>
+  <si>
+    <t>元大商業銀行營業部</t>
+  </si>
+  <si>
+    <t>京城商業銀行營業部</t>
+  </si>
+  <si>
+    <t>NationalAustraliaBankSydney</t>
+  </si>
+  <si>
+    <t>臺灣銀行松山分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行南京東路分行</t>
+  </si>
+  <si>
+    <t>高雄銀行市府分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行</t>
+  </si>
+  <si>
+    <t>交通銀行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行</t>
+  </si>
+  <si>
+    <t>華僑銀行</t>
+  </si>
+  <si>
     <t>綜合存款</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>公教優惠儲蓄存款</t>
+  </si>
+  <si>
     <t>美金</t>
   </si>
   <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>臺灣新光商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行營業部</t>
-  </si>
-  <si>
-    <t>元大商業銀行營業部</t>
-  </si>
-  <si>
-    <t>京城商業銀行營業部</t>
-  </si>
-  <si>
-    <t>NationalAustraliaBankSydney</t>
-  </si>
-  <si>
-    <t>臺灣銀行松山分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行南京東路分行</t>
-  </si>
-  <si>
-    <t>高雄銀行市府分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行</t>
-  </si>
-  <si>
-    <t>交通銀行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行</t>
-  </si>
-  <si>
-    <t>華僑銀行</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>公教優惠儲蓄存款</t>
-  </si>
-  <si>
     <t>新臺幣</t>
   </si>
   <si>
@@ -167,16 +176,13 @@
     <t>李永得f</t>
   </si>
   <si>
-    <t>55.30</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>EquinoxMineralsLimited</t>
@@ -705,13 +711,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
@@ -722,374 +728,728 @@
         <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2">
         <v>59440</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2000</v>
-      </c>
-      <c r="G2" s="2">
-        <v>59440</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2">
+        <v>913</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>5905403</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2">
+        <v>913</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>1800000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2">
+        <v>913</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2835</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2">
+        <v>913</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>2835</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2057</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2">
+        <v>913</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2">
+        <v>102866</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2">
+        <v>913</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>102866</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2">
+        <v>53059</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2">
+        <v>913</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>53059</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="2">
-        <v>7200</v>
-      </c>
-      <c r="G9" s="2">
         <v>215712</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="2">
+        <v>913</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>20964</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="2">
+        <v>913</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>99108</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="2">
+        <v>913</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>5111077</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="2">
+        <v>913</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>303501</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="2">
+        <v>913</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>1632</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="2">
+        <v>913</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>426</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="2">
+        <v>913</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>19411</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="2">
+        <v>913</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="F17" s="2">
+        <v>55.3</v>
+      </c>
       <c r="G17" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>52</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="2">
+        <v>913</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>2705</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="2">
+        <v>913</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1113,13 +1473,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1151,7 +1511,7 @@
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1163,13 +1523,13 @@
         <v>5.95</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2">
         <v>624215</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
@@ -1195,7 +1555,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -1207,13 +1567,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2">
         <v>1170</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>22</v>
@@ -1249,10 +1609,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -1263,10 +1623,10 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -1277,10 +1637,10 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -1304,19 +1664,19 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1">
         <v>1000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1327,19 +1687,19 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1350,19 +1710,19 @@
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2">
         <v>280800</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1373,19 +1733,19 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2">
         <v>500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmp5431.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmp5431.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="77">
   <si>
     <t>name</t>
   </si>
@@ -194,6 +194,9 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>台灣人壽</t>
   </si>
   <si>
@@ -203,40 +206,49 @@
     <t>台灣人壽新祥和定期壽險</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>玉山社事業股份有限公司</t>
   </si>
   <si>
+    <t>淡海股份有限公司</t>
+  </si>
+  <si>
+    <t>先驅媒體社會企業股份有限公司</t>
+  </si>
+  <si>
     <t>臺北市大安區仁愛路四段145號3樓之2</t>
   </si>
   <si>
+    <t>新北市淡水區真理街17號</t>
+  </si>
+  <si>
+    <t>臺北市中正區仁愛路二段98號7樓</t>
+  </si>
+  <si>
     <t>84年07月08日</t>
   </si>
   <si>
+    <t>97年02月27日</t>
+  </si>
+  <si>
+    <t>98年07月24日</t>
+  </si>
+  <si>
     <t>發起設立</t>
   </si>
   <si>
-    <t>淡海股份有限公司</t>
-  </si>
-  <si>
-    <t>先驅媒體社會企業股份有限公司</t>
-  </si>
-  <si>
-    <t>新北市淡水區真理街17號</t>
-  </si>
-  <si>
-    <t>臺北市中正區仁愛路二段98號7樓</t>
-  </si>
-  <si>
-    <t>97年02月27日</t>
-  </si>
-  <si>
-    <t>98年07月24日</t>
-  </si>
-  <si>
     <t>91.07.25發起</t>
   </si>
   <si>
     <t>發起</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -1601,49 +1613,112 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2">
+        <v>913</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2">
+        <v>913</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1653,33 +1728,54 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1000000</v>
+        <v>63</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>55</v>
       </c>
@@ -1687,22 +1783,43 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>73</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2">
+        <v>913</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>56</v>
       </c>
@@ -1713,19 +1830,40 @@
         <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2">
         <v>280800</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>74</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2">
+        <v>913</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>57</v>
       </c>
@@ -1736,16 +1874,37 @@
         <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2">
         <v>500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="2">
+        <v>913</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="2">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
